--- a/ServirWeb/src/main/resources/Outros/Ficha Saude.xlsx
+++ b/ServirWeb/src/main/resources/Outros/Ficha Saude.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="7545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
   <si>
     <t>Dados Pessoais</t>
   </si>
@@ -110,9 +111,6 @@
     <t>Grupo Sanguineo</t>
   </si>
   <si>
-    <t>É sujeito a algum tipo de sangramento anormal? Qual?</t>
-  </si>
-  <si>
     <t>É alergico a algum medicamento (penicilina, sulfa, tetramicina, aspirina, novalgina, outros)?</t>
   </si>
   <si>
@@ -155,30 +153,12 @@
     <t>Soro antitetânico</t>
   </si>
   <si>
-    <t>Doenças de infância: coqueluche, sarampo, catapora, caxumba, etc</t>
-  </si>
-  <si>
-    <t>É portadora  de algum doença crônica? Qual?</t>
-  </si>
-  <si>
-    <t>Apresenta crises súbitas, tais como asma, bronquite, convulsão, desmaios, etc?</t>
-  </si>
-  <si>
-    <t>Em casos de crise súbita, quais medicamentos?</t>
-  </si>
-  <si>
     <t>Remédio</t>
   </si>
   <si>
     <t>Dose</t>
   </si>
   <si>
-    <t>Tem contato com pessoas doentes na família ou fora dela? Qual doença?</t>
-  </si>
-  <si>
-    <t>Já se submeteu a algum tipo de operação? Qual?</t>
-  </si>
-  <si>
     <t>Faz uso de remédios</t>
   </si>
   <si>
@@ -206,18 +186,12 @@
     <t>Observações</t>
   </si>
   <si>
-    <t>Natação/Sabe nadar</t>
-  </si>
-  <si>
     <t>Nenhum</t>
   </si>
   <si>
     <t>Alopáticos</t>
   </si>
   <si>
-    <t>Crise/Sintoma</t>
-  </si>
-  <si>
     <t>Remédios que está tomando atualmente</t>
   </si>
   <si>
@@ -230,9 +204,6 @@
     <t>Assinatura</t>
   </si>
   <si>
-    <t>Sim/Não (Checkbox)</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -240,14 +211,118 @@
   </si>
   <si>
     <t>Hospital preferencial</t>
+  </si>
+  <si>
+    <t>Peso</t>
+  </si>
+  <si>
+    <t>É alergico a pó, mofo, palha, picada, corante, alimentos, etc?</t>
+  </si>
+  <si>
+    <t>Febre Amarela</t>
+  </si>
+  <si>
+    <t>Doenças que ja teve: coqueluche, sarampo, catapora, caxumba, hepatite, rubéola, meningite, outros</t>
+  </si>
+  <si>
+    <t>Checkbox</t>
+  </si>
+  <si>
+    <t>Sim/Não (Radio)</t>
+  </si>
+  <si>
+    <t>Tem algum impedimento crônico ou congênito (visual, asma, bronquite, convulsão, desmaios, etc)?</t>
+  </si>
+  <si>
+    <t>Já se submeteu a algum tipo de cirurgia? Qual?</t>
+  </si>
+  <si>
+    <t>Sabe nadar?</t>
+  </si>
+  <si>
+    <t>Teve fratura entorse, luxação, lesão em ligamentos ou lesão muscular?</t>
+  </si>
+  <si>
+    <t>Teve/tem problema cardíaco?</t>
+  </si>
+  <si>
+    <t>Tem problema de ordem motora?</t>
+  </si>
+  <si>
+    <t>Tem diabetes?</t>
+  </si>
+  <si>
+    <t>Requer algum cuidado especial?</t>
+  </si>
+  <si>
+    <t>Antiofídico, Antitetânico, Outros</t>
+  </si>
+  <si>
+    <t>Já tomou algum soro?</t>
+  </si>
+  <si>
+    <t>s/n/detalhes</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>tabela</t>
+  </si>
+  <si>
+    <t>s/n</t>
+  </si>
+  <si>
+    <t>texto</t>
+  </si>
+  <si>
+    <t>ordem</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>pergunta</t>
+  </si>
+  <si>
+    <t>grupo</t>
+  </si>
+  <si>
+    <t>alergia / medicamento</t>
+  </si>
+  <si>
+    <t>alergia</t>
+  </si>
+  <si>
+    <t>vacina</t>
+  </si>
+  <si>
+    <t>doenças</t>
+  </si>
+  <si>
+    <t>medicamento</t>
+  </si>
+  <si>
+    <t>restrição</t>
+  </si>
+  <si>
+    <t>outros</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -281,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -289,12 +364,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -603,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D76"/>
+  <dimension ref="A2:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +874,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -778,7 +884,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -799,219 +905,515 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>30</v>
+        <v>63</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
         <v>31</v>
       </c>
-      <c r="C42" t="s">
-        <v>32</v>
-      </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" t="s">
         <v>38</v>
-      </c>
-      <c r="D48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C54" s="1"/>
     </row>
     <row r="55" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C56" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>56</v>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
-        <v>60</v>
+      <c r="B69" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
-        <v>57</v>
+      <c r="B70" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>58</v>
+      <c r="B71" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
+      </c>
+      <c r="C72" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>67</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="92.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>41</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>42</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>43</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>51</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>52</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D18">
+    <sortCondition ref="A2:A18"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ServirWeb/src/main/resources/Outros/Ficha Saude.xlsx
+++ b/ServirWeb/src/main/resources/Outros/Ficha Saude.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="99">
   <si>
     <t>Dados Pessoais</t>
   </si>
@@ -307,13 +307,28 @@
   </si>
   <si>
     <t>outros</t>
+  </si>
+  <si>
+    <t>Catapora</t>
+  </si>
+  <si>
+    <t>Caxumba</t>
+  </si>
+  <si>
+    <t>Coqueluche</t>
+  </si>
+  <si>
+    <t>Hepatite</t>
+  </si>
+  <si>
+    <t>Rubéola</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +340,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -356,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -367,6 +396,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1144,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1206,7 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1189,7 +1220,7 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1203,7 +1234,7 @@
       <c r="A4" s="3">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1217,7 +1248,7 @@
       <c r="A5" s="3">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1231,7 +1262,7 @@
       <c r="A6" s="3">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1245,7 +1276,7 @@
       <c r="A7" s="3">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1259,7 +1290,7 @@
       <c r="A8" s="3">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1273,7 +1304,7 @@
       <c r="A9" s="3">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1409,9 +1440,49 @@
         <v>82</v>
       </c>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:D18">
-    <sortCondition ref="A2:A18"/>
+  <sortState ref="B25:B32">
+    <sortCondition ref="B25"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
